--- a/WebDriverMaven/src/test/resources/Data/excelWork.xlsx
+++ b/WebDriverMaven/src/test/resources/Data/excelWork.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="3300"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13665" windowHeight="2805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LandingPage" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>FirstName</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>1234567890</t>
+  </si>
+  <si>
+    <t>SearchText</t>
+  </si>
+  <si>
+    <t>Gaurav Kumar Lal</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +535,7 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -558,7 +564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -587,7 +593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -596,61 +602,61 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -662,4 +668,39 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WebDriverMaven/src/test/resources/Data/excelWork.xlsx
+++ b/WebDriverMaven/src/test/resources/Data/excelWork.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13665" windowHeight="2805" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="2775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LandingPage" sheetId="1" r:id="rId1"/>
     <sheet name="HomePage" sheetId="2" r:id="rId2"/>
+    <sheet name="TimeLine" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>FirstName</t>
   </si>
@@ -116,6 +118,12 @@
   </si>
   <si>
     <t>Gaurav Kumar Lal</t>
+  </si>
+  <si>
+    <t>PostText</t>
+  </si>
+  <si>
+    <t>Hello…</t>
   </si>
 </sst>
 </file>
@@ -674,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,4 +711,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WebDriverMaven/src/test/resources/Data/excelWork.xlsx
+++ b/WebDriverMaven/src/test/resources/Data/excelWork.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="2775" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="2880"/>
   </bookViews>
   <sheets>
     <sheet name="LandingPage" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="TimeLine" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M7"/>
+  <oleSize ref="A1:L6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>FirstName</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Gaurav</t>
   </si>
   <si>
-    <t>TestCaseRegisterUse2</t>
-  </si>
-  <si>
     <t>TestCaseRegisterUser3</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>1989</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>1234567890</t>
   </si>
   <si>
@@ -124,6 +118,42 @@
   </si>
   <si>
     <t>Hello…</t>
+  </si>
+  <si>
+    <t>NewUser2</t>
+  </si>
+  <si>
+    <t>Mukesh</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>mukesh@abcd.conm</t>
+  </si>
+  <si>
+    <t>#test123</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>987654321</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -219,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -243,6 +273,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -526,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,138 +579,169 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="B13" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -694,18 +761,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -729,18 +796,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/WebDriverMaven/src/test/resources/Data/excelWork.xlsx
+++ b/WebDriverMaven/src/test/resources/Data/excelWork.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="2880"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15225" windowHeight="3300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LandingPage" sheetId="1" r:id="rId1"/>
     <sheet name="HomePage" sheetId="2" r:id="rId2"/>
     <sheet name="TimeLine" sheetId="3" r:id="rId3"/>
+    <sheet name="PrintStatus" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L6"/>
+  <oleSize ref="A1:N9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>FirstName</t>
   </si>
@@ -154,6 +155,39 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case </t>
+  </si>
+  <si>
+    <t>TestMethods</t>
+  </si>
+  <si>
+    <t>To be Executed</t>
+  </si>
+  <si>
+    <t>Login to Fb</t>
+  </si>
+  <si>
+    <t>Register to Fb</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>TestLogin</t>
+  </si>
+  <si>
+    <t>TestRegister</t>
+  </si>
+  <si>
+    <t>TestTimeline</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -564,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -813,4 +847,69 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>